--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ntf3</t>
+  </si>
+  <si>
+    <t>Ntrk3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ntf3</t>
-  </si>
-  <si>
-    <t>Ntrk3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H2">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I2">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J2">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +561,22 @@
         <v>0.020301</v>
       </c>
       <c r="O2">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="P2">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="Q2">
-        <v>0.04433274409366667</v>
+        <v>0.025707717961</v>
       </c>
       <c r="R2">
-        <v>0.3989946968429999</v>
+        <v>0.231369461649</v>
       </c>
       <c r="S2">
-        <v>0.006407114673061656</v>
+        <v>0.2042515338959334</v>
       </c>
       <c r="T2">
-        <v>0.006407114673061655</v>
+        <v>0.2042515338959334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H3">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I3">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J3">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="N3">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="O3">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="P3">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="Q3">
-        <v>0.7393594979455554</v>
+        <v>0.08813260661699998</v>
       </c>
       <c r="R3">
-        <v>6.654235481509999</v>
+        <v>0.7931934595529999</v>
       </c>
       <c r="S3">
-        <v>0.106854677841411</v>
+        <v>0.7002262944956048</v>
       </c>
       <c r="T3">
-        <v>0.106854677841411</v>
+        <v>0.7002262944956048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,78 +661,78 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H4">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I4">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J4">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="N4">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="O4">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="P4">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="Q4">
-        <v>3.673337233100111</v>
+        <v>0.003892691247333333</v>
       </c>
       <c r="R4">
-        <v>33.060035097901</v>
+        <v>0.03503422122599999</v>
       </c>
       <c r="S4">
-        <v>0.5308828353952872</v>
+        <v>0.03092799444343132</v>
       </c>
       <c r="T4">
-        <v>0.5308828353952871</v>
+        <v>0.03092799444343132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.551314333333333</v>
+        <v>0.2623376666666666</v>
       </c>
       <c r="H5">
-        <v>19.653943</v>
+        <v>0.787013</v>
       </c>
       <c r="I5">
-        <v>0.6451148003399353</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J5">
-        <v>0.6451148003399352</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.001024666666666667</v>
+        <v>0.006767</v>
       </c>
       <c r="N5">
-        <v>0.003074</v>
+        <v>0.020301</v>
       </c>
       <c r="O5">
-        <v>0.001503875635257811</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="P5">
-        <v>0.001503875635257811</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="Q5">
-        <v>0.006712913420222222</v>
+        <v>0.001775238990333333</v>
       </c>
       <c r="R5">
-        <v>0.06041622078199999</v>
+        <v>0.015977150913</v>
       </c>
       <c r="S5">
-        <v>0.0009701724301754361</v>
+        <v>0.0141045302954361</v>
       </c>
       <c r="T5">
-        <v>0.000970172430175436</v>
+        <v>0.0141045302954361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +791,40 @@
         <v>0.787013</v>
       </c>
       <c r="I6">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J6">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.006767</v>
+        <v>0.023199</v>
       </c>
       <c r="N6">
-        <v>0.020301</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="O6">
-        <v>0.009931743419443339</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="P6">
-        <v>0.009931743419443339</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="Q6">
-        <v>0.001775238990333333</v>
+        <v>0.006085971528999998</v>
       </c>
       <c r="R6">
-        <v>0.015977150913</v>
+        <v>0.05477374376099999</v>
       </c>
       <c r="S6">
-        <v>0.000256563405123861</v>
+        <v>0.04835392320434789</v>
       </c>
       <c r="T6">
-        <v>0.000256563405123861</v>
+        <v>0.04835392320434789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -856,10 +853,10 @@
         <v>0.787013</v>
       </c>
       <c r="I7">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J7">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,400 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1128566666666667</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="N7">
-        <v>0.33857</v>
+        <v>0.003074</v>
       </c>
       <c r="O7">
-        <v>0.1656366863465313</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="P7">
-        <v>0.1656366863465313</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="Q7">
-        <v>0.02960655460111111</v>
+        <v>0.0002688086624444444</v>
       </c>
       <c r="R7">
-        <v>0.26645899141</v>
+        <v>0.002419277962</v>
       </c>
       <c r="S7">
-        <v>0.004278837105205932</v>
+        <v>0.002135723665246568</v>
       </c>
       <c r="T7">
-        <v>0.004278837105205932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.2623376666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.787013</v>
-      </c>
-      <c r="I8">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="J8">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5607023333333334</v>
-      </c>
-      <c r="N8">
-        <v>1.682107</v>
-      </c>
-      <c r="O8">
-        <v>0.8229276945987676</v>
-      </c>
-      <c r="P8">
-        <v>0.8229276945987676</v>
-      </c>
-      <c r="Q8">
-        <v>0.1470933418212222</v>
-      </c>
-      <c r="R8">
-        <v>1.323840076391</v>
-      </c>
-      <c r="S8">
-        <v>0.0212584158269387</v>
-      </c>
-      <c r="T8">
-        <v>0.0212584158269387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.2623376666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.787013</v>
-      </c>
-      <c r="I9">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="J9">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.003074</v>
-      </c>
-      <c r="O9">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="P9">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="Q9">
-        <v>0.0002688086624444444</v>
-      </c>
-      <c r="R9">
-        <v>0.002419277962</v>
-      </c>
-      <c r="S9">
-        <v>3.884911616919111E-05</v>
-      </c>
-      <c r="T9">
-        <v>3.884911616919111E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>3.341617</v>
-      </c>
-      <c r="H10">
-        <v>10.024851</v>
-      </c>
-      <c r="I10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.006767</v>
-      </c>
-      <c r="N10">
-        <v>0.020301</v>
-      </c>
-      <c r="O10">
-        <v>0.009931743419443339</v>
-      </c>
-      <c r="P10">
-        <v>0.009931743419443339</v>
-      </c>
-      <c r="Q10">
-        <v>0.022612722239</v>
-      </c>
-      <c r="R10">
-        <v>0.203514500151</v>
-      </c>
-      <c r="S10">
-        <v>0.003268065341257824</v>
-      </c>
-      <c r="T10">
-        <v>0.003268065341257824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>3.341617</v>
-      </c>
-      <c r="H11">
-        <v>10.024851</v>
-      </c>
-      <c r="I11">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J11">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.1128566666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.33857</v>
-      </c>
-      <c r="O11">
-        <v>0.1656366863465313</v>
-      </c>
-      <c r="P11">
-        <v>0.1656366863465313</v>
-      </c>
-      <c r="Q11">
-        <v>0.3771237558966666</v>
-      </c>
-      <c r="R11">
-        <v>3.39411380307</v>
-      </c>
-      <c r="S11">
-        <v>0.05450317139991436</v>
-      </c>
-      <c r="T11">
-        <v>0.05450317139991436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>3.341617</v>
-      </c>
-      <c r="H12">
-        <v>10.024851</v>
-      </c>
-      <c r="I12">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J12">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.5607023333333334</v>
-      </c>
-      <c r="N12">
-        <v>1.682107</v>
-      </c>
-      <c r="O12">
-        <v>0.8229276945987676</v>
-      </c>
-      <c r="P12">
-        <v>0.8229276945987676</v>
-      </c>
-      <c r="Q12">
-        <v>1.873652449006334</v>
-      </c>
-      <c r="R12">
-        <v>16.862872041057</v>
-      </c>
-      <c r="S12">
-        <v>0.2707864433765418</v>
-      </c>
-      <c r="T12">
-        <v>0.2707864433765418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>3.341617</v>
-      </c>
-      <c r="H13">
-        <v>10.024851</v>
-      </c>
-      <c r="I13">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J13">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.003074</v>
-      </c>
-      <c r="O13">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="P13">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="Q13">
-        <v>0.003424043552666666</v>
-      </c>
-      <c r="R13">
-        <v>0.030816391974</v>
-      </c>
-      <c r="S13">
-        <v>0.000494854088913184</v>
-      </c>
-      <c r="T13">
-        <v>0.0004948540889131841</v>
+        <v>0.002135723665246568</v>
       </c>
     </row>
   </sheetData>
